--- a/LeaguesScheduling.xlsx
+++ b/LeaguesScheduling.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgranger\git\OpenGoalZ\SupaBase\opengoalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E95CC-5659-45DF-8FD1-91EEF5C381A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647AE11-C441-4BFC-8AEC-B474B003780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1 (3)" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="games_description" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="198">
   <si>
     <t>League2.1</t>
   </si>
@@ -416,6 +417,222 @@
   </si>
   <si>
     <t>Lower League Left</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 1/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 1/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 1/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 2/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 2/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 2/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 3/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 3/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 3/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 4/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 4/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 4/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 5/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 5/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 5/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 6/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 6/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 6/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 7/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 7/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 7/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 8/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 9/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 8/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 9/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 9/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 10/10 of normal league</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 10/10 of normal league</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 10/10 of normal league</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 1/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 1/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 1/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 2/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 2/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 2/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 3/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 3/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 3/3 of the international league game of week 11</t>
+  </si>
+  <si>
+    <t>3rd place game of the international cup</t>
+  </si>
+  <si>
+    <t>1st place game of the international cup</t>
+  </si>
+  <si>
+    <t>5th place game of the international cup</t>
+  </si>
+  <si>
+    <t>International Friendly Game for clubs waiting for barrages</t>
+  </si>
+  <si>
+    <t>Intercontinetal Friendly Game for clubs waiting for barrages</t>
+  </si>
+  <si>
+    <t>1st game of the first round of the barrage 1 (week 11) between champions of the left and right lower leagues</t>
+  </si>
+  <si>
+    <t>2nd and return game of the first round of the barrage 1 (week 12) between champions of the left and right lower leagues</t>
+  </si>
+  <si>
+    <t>Friendly return game (week14) between the two winners of the barrage 1 from symmetric league</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) between the two winners of the barrage 1 from symmetric league</t>
+  </si>
+  <si>
+    <t>3rd game of the barrage 1 (week 13) between 5th of the upper league and loser of the barrage 1</t>
+  </si>
+  <si>
+    <t>4th and final game of the barrage 1 (week 14) between 5th of the upper league and loser of the barrage 1</t>
+  </si>
+  <si>
+    <t>1st/2 game of round 1 of the barrage 2 (week 11) of the lower leagues between 2nd of the left league and 3rd of the right league</t>
+  </si>
+  <si>
+    <t>2nd/2 game of round 1 the barrage 2 (week 11) of the lower leagues between 2nd of the right league and 3rd of the left league</t>
+  </si>
+  <si>
+    <t>Friendly game of the barrage 2 (week 12) of the lower leagues between the losers of the first round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Barrage game of round 2 barrage 2 (week 12) of the lower leagues between the winners of the first round of the barrage 2</t>
+  </si>
+  <si>
+    <t>1st game of the barrage 2 (week 13) between the 4th of the upper league and the winner of the 2nd round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Return game of the barrage 2 (week 14) between the 4th of the upper league and the winner of the 2nd round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Friendly cup game (week 13) between the loser of the winning round of the barrage 2 and the loser of the friendly round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Friendly cup game (week 13) between 6th from upper league that is going down and winner of the losing round of the barrage 2</t>
+  </si>
+  <si>
+    <t>Final friendly cup game (week 14) between winners of last friendly game of the barrage2</t>
+  </si>
+  <si>
+    <t>Final friendly cup game (week 14) between losers of last friendly game of the barrage2</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Friendly game (week11) of the lowest leagues between 5th of left league with 5th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week11) of the lowest leagues between 6th of left league with 6th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week12) of the lowest leagues between 4th of right league with 5th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week12) of the lowest leagues between 5th of right league with 6th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week12) of the lowest leagues between 6th of right league with 4th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) of the lowest leagues between 4th of left league with 5th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) of the lowest leagues between 5th of left league with 6th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week13) of the lowest leagues between 6th of left league with 4th of right league</t>
+  </si>
+  <si>
+    <t>Friendly game (week14) of the lowest leagues between 4th of right league with 4th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week14) of the lowest leagues between 5th of right league with 5th of left league</t>
+  </si>
+  <si>
+    <t>Friendly game (week14) of the lowest leagues between 6th of right league with 6th of left league</t>
   </si>
 </sst>
 </file>
@@ -10302,8 +10519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A860CB-A2EE-4895-BECD-F50702E5A564}">
   <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10420,7 +10637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B776EF8-AEBF-4C91-B4D0-9C249C01CE32}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
@@ -10432,4 +10649,636 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A7ADD-6123-4C0F-B6CA-8B1B6E06CC7B}">
+  <dimension ref="A10:B86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>211</v>
+      </c>
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>212</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>213</v>
+      </c>
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>215</v>
+      </c>
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>216</v>
+      </c>
+      <c r="B64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>311</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>312</v>
+      </c>
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>321</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>322</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>331</v>
+      </c>
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>332</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>341</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>342</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>351</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>352</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>411</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>412</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>413</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>421</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>422</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>423</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>431</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>432</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>433</v>
+      </c>
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>441</v>
+      </c>
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>442</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LeaguesScheduling.xlsx
+++ b/LeaguesScheduling.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgranger\git\OpenGoalZ\SupaBase\opengoalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647AE11-C441-4BFC-8AEC-B474B003780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97186B74-E262-463C-9521-6A699C002132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
-    <sheet name="games_description" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="games_description" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,378 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="198">
-  <si>
-    <t>League2.1</t>
-  </si>
-  <si>
-    <t>League2.2</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>League2.4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>League1Left</t>
-  </si>
-  <si>
-    <t>League1Right</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>W12</t>
-  </si>
-  <si>
-    <t>W13</t>
-  </si>
-  <si>
-    <t>W14</t>
-  </si>
-  <si>
-    <t>W11</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>RL2</t>
-  </si>
-  <si>
-    <t>RL3</t>
-  </si>
-  <si>
-    <t>LR1</t>
-  </si>
-  <si>
-    <t>LR2</t>
-  </si>
-  <si>
-    <t>LR3</t>
-  </si>
-  <si>
-    <t>LR4</t>
-  </si>
-  <si>
-    <t>LR5</t>
-  </si>
-  <si>
-    <t>LR6</t>
-  </si>
-  <si>
-    <t>RR1</t>
-  </si>
-  <si>
-    <t>RR2</t>
-  </si>
-  <si>
-    <t>RR3</t>
-  </si>
-  <si>
-    <t>RR4</t>
-  </si>
-  <si>
-    <t>RR5</t>
-  </si>
-  <si>
-    <t>RR6</t>
-  </si>
-  <si>
-    <t>1st World Cup</t>
-  </si>
-  <si>
-    <t>2nd World Cup</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>F:M6-L1 (Friendly between the team going down and the one going up)</t>
-  </si>
-  <si>
-    <t>F:L3-R3 (Friendly between losers of Barrage2)</t>
-  </si>
-  <si>
-    <t>3rd World Cup</t>
-  </si>
-  <si>
-    <t>B1:L1-R1 (Barrage1: Between 1sts: Winner goes up / Loser Plays Barrage with L5)</t>
-  </si>
-  <si>
-    <t>B2.2:R2-L3 (Game 2 of Barrage 2 between 2nd of Right and 3rd of Left</t>
-  </si>
-  <si>
-    <t>B2.1:L2-R3 (Barrage2 between 2nd of Left and 3rd of Right)</t>
-  </si>
-  <si>
-    <t>B2.3:L2-R2 (Barrage2 between winners of first round)</t>
-  </si>
-  <si>
-    <t>FL4-XXX5</t>
-  </si>
-  <si>
-    <t>FL6-XXX6</t>
-  </si>
-  <si>
-    <t>FL6-L1 (Friendly between L6 going down and L1 going up)</t>
-  </si>
-  <si>
-    <t>FL4-XXX4</t>
-  </si>
-  <si>
-    <t>FL5-XXX5</t>
-  </si>
-  <si>
-    <t>LL1: Up</t>
-  </si>
-  <si>
-    <t>L6: Down</t>
-  </si>
-  <si>
-    <t>LL2: UpB2.4</t>
-  </si>
-  <si>
-    <t>RL1:Up B1.2</t>
-  </si>
-  <si>
-    <t>L5: Down B1.2</t>
-  </si>
-  <si>
-    <t>L4: Down B2.4</t>
-  </si>
-  <si>
-    <t>FL6-R1 (Friendly between L6 going down and R1 going up after B1.2)</t>
-  </si>
-  <si>
-    <t>LL3: Stay</t>
-  </si>
-  <si>
-    <t>LL4: Stay</t>
-  </si>
-  <si>
-    <t>LL5: Stay</t>
-  </si>
-  <si>
-    <t>LL6: Stay</t>
-  </si>
-  <si>
-    <t>RL4: Stay</t>
-  </si>
-  <si>
-    <t>RL5: Stay</t>
-  </si>
-  <si>
-    <t>RL6: Stay</t>
-  </si>
-  <si>
-    <t>FL1-R2 (friendly between L1 going up and R2 who lost second round of Barrage2)</t>
-  </si>
-  <si>
-    <t>FL5-XXX4</t>
-  </si>
-  <si>
-    <t>FL4-XXX6</t>
-  </si>
-  <si>
-    <t>FL6-XXX4</t>
-  </si>
-  <si>
-    <t>B2.4:L5-L2 (Final game of Barrage2 between L4 and L2 winner of Barrage2.3)</t>
-  </si>
-  <si>
-    <t>FL1-R1</t>
-  </si>
-  <si>
-    <t>FL2-R2</t>
-  </si>
-  <si>
-    <t>FL3-R3</t>
-  </si>
-  <si>
-    <t>FM4-Continent</t>
-  </si>
-  <si>
-    <t>FM5-Continent</t>
-  </si>
-  <si>
-    <t>FM6-Continent</t>
-  </si>
-  <si>
-    <t>B1.2: L5vR1 (Final game of Barrage1 between L5 and loser of B1.1 (R1))</t>
-  </si>
-  <si>
-    <t>WC:1v4</t>
-  </si>
-  <si>
-    <t>WC:2v3</t>
-  </si>
-  <si>
-    <t>F:5v6</t>
-  </si>
-  <si>
-    <t>WC:1v6</t>
-  </si>
-  <si>
-    <t>WC:2v5</t>
-  </si>
-  <si>
-    <t>F:3v4</t>
-  </si>
-  <si>
-    <t>F:1v2</t>
-  </si>
-  <si>
-    <t>WC4v6</t>
-  </si>
-  <si>
-    <t>WC:3v5</t>
-  </si>
-  <si>
-    <t>WC:1v2</t>
-  </si>
-  <si>
-    <t>WorldCupGrpB</t>
-  </si>
-  <si>
-    <t>WorldCupGrpA</t>
-  </si>
-  <si>
-    <t>F:3v6</t>
-  </si>
-  <si>
-    <t>F:4v5</t>
-  </si>
-  <si>
-    <t>1: M4</t>
-  </si>
-  <si>
-    <t>3: M6</t>
-  </si>
-  <si>
-    <t>4: L1</t>
-  </si>
-  <si>
-    <t>5: R1</t>
-  </si>
-  <si>
-    <t>6: L2</t>
-  </si>
-  <si>
-    <t>7: R2</t>
-  </si>
-  <si>
-    <t>8: L3</t>
-  </si>
-  <si>
-    <t>9: R3</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Right</t>
-  </si>
-  <si>
-    <t>2: M5</t>
-  </si>
-  <si>
-    <t>B1.2: 2v5</t>
-  </si>
-  <si>
-    <t>B1.1: 4v5</t>
-  </si>
-  <si>
-    <t>B2.1: 6v9</t>
-  </si>
-  <si>
-    <t>B2.1: 7v8</t>
-  </si>
-  <si>
-    <t>F:8v9</t>
-  </si>
-  <si>
-    <t>F: 3v4</t>
-  </si>
-  <si>
-    <t>F: L1vR2</t>
-  </si>
-  <si>
-    <t>F: R1vL2</t>
-  </si>
-  <si>
-    <t>F: L3vR3</t>
-  </si>
-  <si>
-    <t>F: L1vR1</t>
-  </si>
-  <si>
-    <t>F: L2vR2</t>
-  </si>
-  <si>
-    <t>B2.3: 6v7</t>
-  </si>
-  <si>
-    <t>B2.3: 1v6</t>
-  </si>
-  <si>
-    <t>F: 4v7</t>
-  </si>
-  <si>
-    <t>F: 3v5</t>
-  </si>
-  <si>
-    <t>F: 8v9</t>
-  </si>
-  <si>
-    <t>F: 4v5</t>
-  </si>
-  <si>
-    <t>F: 6v7</t>
   </si>
   <si>
     <t>Master League Left</t>
@@ -542,12 +172,6 @@
     <t>5th place game of the international cup</t>
   </si>
   <si>
-    <t>International Friendly Game for clubs waiting for barrages</t>
-  </si>
-  <si>
-    <t>Intercontinetal Friendly Game for clubs waiting for barrages</t>
-  </si>
-  <si>
     <t>1st game of the first round of the barrage 1 (week 11) between champions of the left and right lower leagues</t>
   </si>
   <si>
@@ -634,12 +258,48 @@
   <si>
     <t>Friendly game (week14) of the lowest leagues between 6th of right league with 6th of left league</t>
   </si>
+  <si>
+    <t>International Friendly Game of week 11 for clubs waiting for barrages against best 4th and worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 11 for clubs waiting for barrages against second best 4th and second worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 11 for clubs waiting for barrages against third best 4th and third worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 12 for clubs waiting for barrages against best 4th and worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 12 for clubs waiting for barrages against second best 4th and second worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>International Friendly Game of week 12 for clubs waiting for barrages against third best 4th and third worst 4th of the master leagues</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 11 for rank 4 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 11 for rank 5 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 11 for rank 6 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 12 for rank 4 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 12 for rank 5 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>Friendly Game of week 12 for rank 6 clubs waiting for barrages between opposite league</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,78 +307,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -726,229 +324,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,175 +336,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9230,1296 +8443,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86797F62-819F-44C3-9BF3-28F3A5B7BD9C}">
-  <dimension ref="A1:W39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" style="1" customWidth="1"/>
-    <col min="19" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="25" width="9.85546875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="46" t="str">
-        <f>Q2</f>
-        <v>WC:1v2</v>
-      </c>
-      <c r="T2" s="46" t="str">
-        <f>P2</f>
-        <v>F:1v2</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="3">
-        <v>4</v>
-      </c>
-      <c r="N3" s="47" t="str">
-        <f>N2</f>
-        <v>WC:1v4</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="52" t="str">
-        <f>Q4</f>
-        <v>F:3v6</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" s="4" t="str">
-        <f>O3</f>
-        <v>F:3v4</v>
-      </c>
-      <c r="V3" s="46" t="str">
-        <f>V2</f>
-        <v>WC:2v3</v>
-      </c>
-      <c r="W3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="48" t="str">
-        <f>O2</f>
-        <v>WC:1v6</v>
-      </c>
-      <c r="P4" s="48" t="str">
-        <f>P3</f>
-        <v>WC4v6</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="52" t="str">
-        <f>Q3</f>
-        <v>F:4v5</v>
-      </c>
-      <c r="T4" s="48" t="str">
-        <f>T3</f>
-        <v>WC:3v5</v>
-      </c>
-      <c r="U4" s="48" t="str">
-        <f>U2</f>
-        <v>WC:2v5</v>
-      </c>
-      <c r="V4" s="48" t="str">
-        <f>N4</f>
-        <v>F:5v6</v>
-      </c>
-      <c r="W4" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="28" t="str">
-        <f>C14</f>
-        <v>B1.2: L5vR1 (Final game of Barrage1 between L5 and loser of B1.1 (R1))</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="30" t="str">
-        <f>D15</f>
-        <v>FL6-R1 (Friendly between L6 going down and R1 going up after B1.2)</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="34" t="str">
-        <f>B18</f>
-        <v>B1:L1-R1 (Barrage1: Between 1sts: Winner goes up / Loser Plays Barrage with L5)</v>
-      </c>
-      <c r="C10" s="32" t="str">
-        <f>C7</f>
-        <v>F:M6-L1 (Friendly between the team going down and the one going up)</v>
-      </c>
-      <c r="D10" s="34" t="str">
-        <f>D18</f>
-        <v>FL1-R2 (friendly between L1 going up and R2 who lost second round of Barrage2)</v>
-      </c>
-      <c r="E10" s="35" t="str">
-        <f>E18</f>
-        <v>FL1-R1</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="39" t="str">
-        <f>B10</f>
-        <v>B1:L1-R1 (Barrage1: Between 1sts: Winner goes up / Loser Plays Barrage with L5)</v>
-      </c>
-      <c r="O10" s="32" t="str">
-        <f>C6</f>
-        <v>B1.2: L5vR1 (Final game of Barrage1 between L5 and loser of B1.1 (R1))</v>
-      </c>
-      <c r="P10" s="32" t="str">
-        <f>D7</f>
-        <v>FL6-R1 (Friendly between L6 going down and R1 going up after B1.2)</v>
-      </c>
-      <c r="Q10" s="32" t="str">
-        <f>E10</f>
-        <v>FL1-R1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="22" t="str">
-        <f>B19</f>
-        <v>B2.1:L2-R3 (Barrage2 between 2nd of Left and 3rd of Right)</v>
-      </c>
-      <c r="C11" s="22" t="str">
-        <f>C19</f>
-        <v>B2.3:L2-R2 (Barrage2 between winners of first round)</v>
-      </c>
-      <c r="D11" s="32" t="str">
-        <f>D5</f>
-        <v>B2.4:L5-L2 (Final game of Barrage2 between L4 and L2 winner of Barrage2.3)</v>
-      </c>
-      <c r="E11" s="23" t="str">
-        <f>E19</f>
-        <v>FL2-R2</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="32" t="str">
-        <f>B12</f>
-        <v>B2.2:R2-L3 (Game 2 of Barrage 2 between 2nd of Right and 3rd of Left</v>
-      </c>
-      <c r="O11" s="32" t="str">
-        <f>C11</f>
-        <v>B2.3:L2-R2 (Barrage2 between winners of first round)</v>
-      </c>
-      <c r="P11" s="32" t="str">
-        <f>D10</f>
-        <v>FL1-R2 (friendly between L1 going up and R2 who lost second round of Barrage2)</v>
-      </c>
-      <c r="Q11" s="32" t="str">
-        <f>E11</f>
-        <v>FL2-R2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="24" t="str">
-        <f>B20</f>
-        <v>B2.2:R2-L3 (Game 2 of Barrage 2 between 2nd of Right and 3rd of Left</v>
-      </c>
-      <c r="C12" s="24" t="str">
-        <f>C20</f>
-        <v>F:L3-R3 (Friendly between losers of Barrage2)</v>
-      </c>
-      <c r="D12" s="24" t="str">
-        <f>D20</f>
-        <v>F:L3-R3 (Friendly between losers of Barrage2)</v>
-      </c>
-      <c r="E12" s="25" t="str">
-        <f>E20</f>
-        <v>FL3-R3</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="32" t="str">
-        <f>B11</f>
-        <v>B2.1:L2-R3 (Barrage2 between 2nd of Left and 3rd of Right)</v>
-      </c>
-      <c r="O12" s="44" t="str">
-        <f>C12</f>
-        <v>F:L3-R3 (Friendly between losers of Barrage2)</v>
-      </c>
-      <c r="P12" s="32" t="str">
-        <f>D12</f>
-        <v>F:L3-R3 (Friendly between losers of Barrage2)</v>
-      </c>
-      <c r="Q12" s="32" t="str">
-        <f>E12</f>
-        <v>FL3-R3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="M13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="32" t="str">
-        <f>B14</f>
-        <v>FL5-XXX4</v>
-      </c>
-      <c r="O13" s="32" t="str">
-        <f>C13</f>
-        <v>FL4-XXX4</v>
-      </c>
-      <c r="P13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="32" t="str">
-        <f>E15</f>
-        <v>FL6-XXX4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="43" t="str">
-        <f>B13</f>
-        <v>FL4-XXX5</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="32" t="str">
-        <f>D14</f>
-        <v>FL5-XXX5</v>
-      </c>
-      <c r="Q14" s="32" t="str">
-        <f>E14</f>
-        <v>FL5-XXX5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-      <c r="M15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="32" t="str">
-        <f>B15</f>
-        <v>FL6-XXX6</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="32" t="str">
-        <f>E13</f>
-        <v>FL4-XXX6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="43" t="str">
-        <f>C15</f>
-        <v>FL6-L1 (Friendly between L6 going down and L1 going up)</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="39" t="str">
-        <f>B18</f>
-        <v>B1:L1-R1 (Barrage1: Between 1sts: Winner goes up / Loser Plays Barrage with L5)</v>
-      </c>
-      <c r="I18" s="43" t="str">
-        <f>C14</f>
-        <v>B1.2: L5vR1 (Final game of Barrage1 between L5 and loser of B1.1 (R1))</v>
-      </c>
-      <c r="J18" s="43" t="str">
-        <f>D15</f>
-        <v>FL6-R1 (Friendly between L6 going down and R1 going up after B1.2)</v>
-      </c>
-      <c r="K18" s="32" t="str">
-        <f>E18</f>
-        <v>FL1-R1</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="T18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="V18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="W18" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="43" t="str">
-        <f>D13</f>
-        <v>B2.4:L5-L2 (Final game of Barrage2 between L4 and L2 winner of Barrage2.3)</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="43" t="str">
-        <f>B20</f>
-        <v>B2.2:R2-L3 (Game 2 of Barrage 2 between 2nd of Right and 3rd of Left</v>
-      </c>
-      <c r="I19" s="43" t="str">
-        <f>C19</f>
-        <v>B2.3:L2-R2 (Barrage2 between winners of first round)</v>
-      </c>
-      <c r="J19" s="32" t="str">
-        <f>D18</f>
-        <v>FL1-R2 (friendly between L1 going up and R2 who lost second round of Barrage2)</v>
-      </c>
-      <c r="K19" s="32" t="str">
-        <f>E19</f>
-        <v>FL2-R2</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="W19" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="44" t="str">
-        <f>B19</f>
-        <v>B2.1:L2-R3 (Barrage2 between 2nd of Left and 3rd of Right)</v>
-      </c>
-      <c r="I20" s="44" t="str">
-        <f>C20</f>
-        <v>F:L3-R3 (Friendly between losers of Barrage2)</v>
-      </c>
-      <c r="J20" s="32" t="str">
-        <f>D20</f>
-        <v>F:L3-R3 (Friendly between losers of Barrage2)</v>
-      </c>
-      <c r="K20" s="32" t="str">
-        <f>E20</f>
-        <v>FL3-R3</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="T20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="W20" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q21" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="S21" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="T21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="V21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="W21" s="42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="T22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="V22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="W22" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="T23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="V23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="W23" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="57" t="str">
-        <f>B32</f>
-        <v>F: R1vL2</v>
-      </c>
-      <c r="I31" s="57" t="str">
-        <f>C31</f>
-        <v>F: L1vR1</v>
-      </c>
-      <c r="K31" s="57" t="str">
-        <f>E31</f>
-        <v>F: L1vR1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="57" t="str">
-        <f>B31</f>
-        <v>F: L1vR2</v>
-      </c>
-      <c r="J32" s="57" t="str">
-        <f>D32</f>
-        <v>F: L2vR2</v>
-      </c>
-      <c r="K32" s="57" t="str">
-        <f>E32</f>
-        <v>F: L2vR2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="57" t="str">
-        <f>B33</f>
-        <v>F: L3vR3</v>
-      </c>
-      <c r="K33" s="57" t="str">
-        <f>E33</f>
-        <v>F: L3vR3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="56" t="str">
-        <f>C33</f>
-        <v>F: 3v4</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="53" t="str">
-        <f>B34</f>
-        <v>B1.1: 4v5</v>
-      </c>
-      <c r="C35" s="53" t="str">
-        <f>C32</f>
-        <v>B1.2: 2v5</v>
-      </c>
-      <c r="D35" s="56" t="str">
-        <f>D33</f>
-        <v>F: 3v5</v>
-      </c>
-      <c r="E35" s="53" t="str">
-        <f>E34</f>
-        <v>F: 4v5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="54" t="str">
-        <f>D31</f>
-        <v>B2.3: 1v6</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="54" t="str">
-        <f>C36</f>
-        <v>B2.3: 6v7</v>
-      </c>
-      <c r="D37" s="53" t="str">
-        <f>D34</f>
-        <v>F: 4v7</v>
-      </c>
-      <c r="E37" s="54" t="str">
-        <f>E36</f>
-        <v>F: 6v7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="55" t="str">
-        <f>B37</f>
-        <v>B2.1: 7v8</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="54" t="str">
-        <f>B36</f>
-        <v>B2.1: 6v9</v>
-      </c>
-      <c r="C39" s="55" t="str">
-        <f>C38</f>
-        <v>F:8v9</v>
-      </c>
-      <c r="D39" s="55" t="str">
-        <f>D38</f>
-        <v>F: 8v9</v>
-      </c>
-      <c r="E39" s="55" t="str">
-        <f>E38</f>
-        <v>F: 8v9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A860CB-A2EE-4895-BECD-F50702E5A564}">
   <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -10530,10 +8457,10 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,7 +8498,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -10600,7 +8527,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -10633,12 +8560,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B776EF8-AEBF-4C91-B4D0-9C249C01CE32}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10651,22 +8578,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A7ADD-6123-4C0F-B6CA-8B1B6E06CC7B}">
-  <dimension ref="A10:B86"/>
+  <dimension ref="A10:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10674,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -10682,7 +8609,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10690,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10698,7 +8625,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -10706,7 +8633,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -10714,7 +8641,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10722,7 +8649,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10730,7 +8657,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -10738,7 +8665,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -10746,7 +8673,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -10754,7 +8681,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -10762,7 +8689,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -10770,7 +8697,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -10778,7 +8705,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -10786,7 +8713,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -10794,7 +8721,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -10802,7 +8729,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -10810,7 +8737,7 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -10818,7 +8745,7 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -10826,7 +8753,7 @@
         <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -10834,7 +8761,7 @@
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -10842,7 +8769,7 @@
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -10850,7 +8777,7 @@
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -10858,7 +8785,7 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -10866,7 +8793,7 @@
         <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10874,7 +8801,7 @@
         <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -10882,7 +8809,7 @@
         <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10890,7 +8817,7 @@
         <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10898,7 +8825,7 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -10906,7 +8833,7 @@
         <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -10914,7 +8841,7 @@
         <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10922,7 +8849,7 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -10930,7 +8857,7 @@
         <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10938,7 +8865,7 @@
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -10946,7 +8873,7 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -10954,7 +8881,7 @@
         <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -10962,7 +8889,7 @@
         <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -10970,7 +8897,7 @@
         <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -10978,7 +8905,7 @@
         <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -10986,7 +8913,7 @@
         <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -10994,7 +8921,7 @@
         <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -11002,7 +8929,7 @@
         <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -11010,7 +8937,7 @@
         <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -11018,7 +8945,7 @@
         <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -11026,7 +8953,7 @@
         <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -11034,7 +8961,7 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -11042,7 +8969,7 @@
         <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -11050,231 +8977,279 @@
         <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>412</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>423</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>431</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>432</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>433</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>441</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>442</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>443</v>
       </c>
-      <c r="B86" t="s">
-        <v>197</v>
+      <c r="B92" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/LeaguesScheduling.xlsx
+++ b/LeaguesScheduling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgranger\git\OpenGoalZ\SupaBase\opengoalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97186B74-E262-463C-9521-6A699C002132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E418B2-A340-453B-8325-1CC54BEFDF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Right</t>
   </si>
@@ -143,24 +143,6 @@
   </si>
   <si>
     <t>3rd/3 game of round 1/3 of the international league game of week 11</t>
-  </si>
-  <si>
-    <t>1st/3 game of round 2/3 of the international league game of week 11</t>
-  </si>
-  <si>
-    <t>2nd/3 game of round 2/3 of the international league game of week 11</t>
-  </si>
-  <si>
-    <t>3rd/3 game of round 2/3 of the international league game of week 11</t>
-  </si>
-  <si>
-    <t>1st/3 game of round 3/3 of the international league game of week 11</t>
-  </si>
-  <si>
-    <t>2nd/3 game of round 3/3 of the international league game of week 11</t>
-  </si>
-  <si>
-    <t>3rd/3 game of round 3/3 of the international league game of week 11</t>
   </si>
   <si>
     <t>3rd place game of the international cup</t>
@@ -293,6 +275,27 @@
   </si>
   <si>
     <t>Friendly Game of week 12 for rank 6 clubs waiting for barrages between opposite league</t>
+  </si>
+  <si>
+    <t>week_number</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 2/3 of the international league game of week 12</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 2/3 of the international league game of week 12</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 2/3 of the international league game of week 12</t>
+  </si>
+  <si>
+    <t>1st/3 game of round 3/3 of the international league game of week 13</t>
+  </si>
+  <si>
+    <t>2nd/3 game of round 3/3 of the international league game of week 13</t>
+  </si>
+  <si>
+    <t>3rd/3 game of round 3/3 of the international league game of week 13</t>
   </si>
 </sst>
 </file>
@@ -8564,7 +8567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B776EF8-AEBF-4C91-B4D0-9C249C01CE32}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -8580,676 +8583,930 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A7ADD-6123-4C0F-B6CA-8B1B6E06CC7B}">
-  <dimension ref="A10:B92"/>
+  <dimension ref="A10:C92"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B92"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>81</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>82</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>83</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>92</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>93</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>101</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>102</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
       </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
       </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>83</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>211</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>212</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>311</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>312</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>321</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>322</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>331</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>332</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>342</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>351</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>411</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>412</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>413</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>421</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>422</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>423</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>431</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>432</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>433</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>441</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>442</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>443</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
